--- a/Final/ProduccionSonoraMango.xlsx
+++ b/Final/ProduccionSonoraMango.xlsx
@@ -1,31 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alec_\Documents\GitHub\ProduccionMango\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E850378-5524-403A-86EE-F2BEA3A5060A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA45692-0E5B-481F-A4A1-83E41DD8D202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="1755" windowWidth="22155" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD1979DB-AD65-4D9E-B7F6-7DD14DE788BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$V$12</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>ENE</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DIC</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
   <si>
     <t>SEMBRADA</t>
   </si>
@@ -33,25 +82,25 @@
     <t>COSECHADA</t>
   </si>
   <si>
+    <t>PRODUCCION</t>
+  </si>
+  <si>
+    <t>RENDIMIENTO</t>
+  </si>
+  <si>
+    <t>PMR</t>
+  </si>
+  <si>
+    <t>VALORPRODUCCION</t>
+  </si>
+  <si>
     <t>SINIESTRADA</t>
   </si>
   <si>
-    <t>PRODUCCION</t>
-  </si>
-  <si>
-    <t>RENDIMIENTO</t>
-  </si>
-  <si>
-    <t>PMR</t>
-  </si>
-  <si>
-    <t>VALORPRODUCCION</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>TEMPERATURAANUAL</t>
+    <t>DEFECTOS</t>
+  </si>
+  <si>
+    <t>TEMPANUAL</t>
   </si>
 </sst>
 </file>
@@ -87,10 +136,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -125,7 +182,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -137,7 +194,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -184,6 +241,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -219,6 +293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,136 +461,838 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B8833E-30DB-451D-834C-5DCFA5A30164}">
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="2" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="2">
+        <v>13.702801999335568</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14.354055266428436</v>
+      </c>
+      <c r="D2" s="2">
+        <v>16.811422739880477</v>
+      </c>
+      <c r="E2" s="2">
+        <v>19.952245581220431</v>
+      </c>
+      <c r="F2" s="2">
+        <v>23.44176734367646</v>
+      </c>
+      <c r="G2" s="2">
+        <v>28.732505967870306</v>
+      </c>
+      <c r="H2" s="2">
+        <v>30.203536382306435</v>
+      </c>
+      <c r="I2" s="2">
+        <v>29.982958640596102</v>
+      </c>
+      <c r="J2" s="2">
+        <v>28.593122736901513</v>
+      </c>
+      <c r="K2" s="2">
+        <v>23.44043480421594</v>
+      </c>
+      <c r="L2" s="2">
+        <v>17.231700212388603</v>
+      </c>
+      <c r="M2" s="2">
+        <v>15.644770189880409</v>
+      </c>
+      <c r="N2" s="2">
+        <v>21.84094348872506</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>289.98</v>
+      </c>
+      <c r="S2">
+        <v>16.11</v>
+      </c>
+      <c r="T2">
+        <v>1727.6</v>
+      </c>
+      <c r="U2">
+        <v>500.97</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13.890387959874651</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14.036406540784469</v>
+      </c>
+      <c r="D3" s="2">
+        <v>19.501495564197416</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21.81067931891538</v>
+      </c>
+      <c r="F3" s="2">
+        <v>23.880515846890614</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28.928931655602103</v>
+      </c>
+      <c r="H3" s="2">
+        <v>30.035332487196005</v>
+      </c>
+      <c r="I3" s="2">
+        <v>29.506127756110793</v>
+      </c>
+      <c r="J3" s="2">
+        <v>29.107309155103664</v>
+      </c>
+      <c r="K3" s="2">
+        <v>24.300445696380784</v>
+      </c>
+      <c r="L3" s="2">
+        <v>16.957081404171163</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11.995378603886142</v>
+      </c>
+      <c r="N3" s="2">
+        <v>21.995840999092767</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>348.5</v>
+      </c>
+      <c r="S3">
+        <v>18.34</v>
+      </c>
+      <c r="T3">
+        <v>2603.73</v>
+      </c>
+      <c r="U3">
+        <v>907.4</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>22.441666666666663</v>
+      </c>
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>349.5</v>
+      </c>
+      <c r="S4">
+        <v>18.39</v>
+      </c>
+      <c r="T4">
+        <v>2805.21</v>
+      </c>
+      <c r="U4">
+        <v>980.42</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12.594990446428572</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13.852421690993825</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="N5" s="2">
+        <v>22.428951011451868</v>
+      </c>
+      <c r="O5">
+        <v>58</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>252</v>
+      </c>
+      <c r="S5">
+        <v>14.82</v>
+      </c>
+      <c r="T5">
+        <v>2891.67</v>
+      </c>
+      <c r="U5">
+        <v>728.7</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N6" s="2">
+        <v>23.600000000000005</v>
+      </c>
+      <c r="O6">
+        <v>68</v>
+      </c>
+      <c r="P6">
+        <v>27</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>401</v>
+      </c>
+      <c r="S6">
+        <v>14.85</v>
+      </c>
+      <c r="T6">
+        <v>3272.44</v>
+      </c>
+      <c r="U6">
+        <v>1312.25</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="J7" s="2">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="N7" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="O7">
+        <v>29</v>
+      </c>
+      <c r="P7">
+        <v>29</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>382.76</v>
+      </c>
+      <c r="S7">
+        <v>13.2</v>
+      </c>
+      <c r="T7">
+        <v>3463.66</v>
+      </c>
+      <c r="U7">
+        <v>1325.75</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>26</v>
+      </c>
+      <c r="L8" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="N8" s="2">
+        <v>23.075000000000003</v>
+      </c>
+      <c r="O8">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>29</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>417.4</v>
+      </c>
+      <c r="S8">
+        <v>14.39</v>
+      </c>
+      <c r="T8">
+        <v>3857.78</v>
+      </c>
+      <c r="U8">
+        <v>1610.24</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>23.433333333333334</v>
+      </c>
+      <c r="O9">
+        <v>55</v>
+      </c>
+      <c r="P9">
+        <v>29</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>406.96</v>
+      </c>
+      <c r="S9">
+        <v>14.03</v>
+      </c>
+      <c r="T9">
+        <v>3966.78</v>
+      </c>
+      <c r="U9">
+        <v>1614.32</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2018</v>
       </c>
-      <c r="B2">
+      <c r="B10" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="N10" s="2">
+        <v>22.941666666666674</v>
+      </c>
+      <c r="O10" s="3">
         <v>95.28</v>
       </c>
-      <c r="C2">
+      <c r="P10" s="3">
         <v>36</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>558.6</v>
       </c>
-      <c r="F2">
+      <c r="S10" s="3">
         <v>15.52</v>
       </c>
-      <c r="G2" s="1">
+      <c r="T10" s="3">
         <v>3761.6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="U10" s="3">
         <v>2101.23</v>
       </c>
-      <c r="I2">
-        <v>22.94166667</v>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>2019</v>
       </c>
-      <c r="B3">
+      <c r="B11" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="I11" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M11" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="O11" s="3">
         <v>78.28</v>
       </c>
-      <c r="C3">
+      <c r="P11" s="3">
         <v>26</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
         <v>392.96</v>
       </c>
-      <c r="F3">
+      <c r="S11" s="3">
         <v>15.11</v>
       </c>
-      <c r="G3" s="1">
+      <c r="T11" s="3">
         <v>3490.11</v>
       </c>
-      <c r="H3" s="1">
+      <c r="U11" s="3">
         <v>1371.47</v>
       </c>
-      <c r="I3">
-        <v>22.4</v>
+      <c r="V11" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>2020</v>
       </c>
-      <c r="B4">
+      <c r="B12" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="I12" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="N12" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="O12" s="3">
         <v>136.28</v>
       </c>
-      <c r="C4">
+      <c r="P12" s="3">
         <v>38</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>619</v>
       </c>
-      <c r="F4">
+      <c r="S12" s="3">
         <v>16.29</v>
       </c>
-      <c r="G4" s="1">
+      <c r="T12" s="3">
         <v>3793.54</v>
       </c>
-      <c r="H4" s="1">
+      <c r="U12" s="3">
         <v>2348.1999999999998</v>
       </c>
-      <c r="I4">
-        <v>23.4</v>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Final/ProduccionSonoraMango.xlsx
+++ b/Final/ProduccionSonoraMango.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alec_\Documents\GitHub\ProduccionMango\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA45692-0E5B-481F-A4A1-83E41DD8D202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59551A53-A1A6-4419-89F1-983FF35042E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD1979DB-AD65-4D9E-B7F6-7DD14DE788BB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$V$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$W$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>YEAR</t>
   </si>
@@ -97,10 +97,16 @@
     <t>SINIESTRADA</t>
   </si>
   <si>
-    <t>DEFECTOS</t>
-  </si>
-  <si>
     <t>TEMPANUAL</t>
+  </si>
+  <si>
+    <t>DEFECTOSTEMP</t>
+  </si>
+  <si>
+    <t>DEFECTOSPRECIP</t>
+  </si>
+  <si>
+    <t>PRECIPITACIONMEDIA</t>
   </si>
 </sst>
 </file>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B8833E-30DB-451D-834C-5DCFA5A30164}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +485,7 @@
     <col min="22" max="22" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,34 +526,40 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2010</v>
       </c>
@@ -590,32 +602,38 @@
       <c r="N2" s="2">
         <v>21.84094348872506</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
+        <v>421</v>
+      </c>
+      <c r="P2">
         <v>100</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>18</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>289.98</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>16.11</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1727.6</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>500.97</v>
       </c>
-      <c r="V2">
-        <v>0</v>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2011</v>
       </c>
@@ -658,32 +676,38 @@
       <c r="N3" s="2">
         <v>21.995840999092767</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
+        <v>421</v>
+      </c>
+      <c r="P3">
         <v>100</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>19</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>348.5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>18.34</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2603.73</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>907.4</v>
       </c>
-      <c r="V3">
-        <v>0</v>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2012</v>
       </c>
@@ -726,32 +750,38 @@
       <c r="N4" s="2">
         <v>22.441666666666663</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
+        <v>421</v>
+      </c>
+      <c r="P4">
         <v>60</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>19</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>349.5</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>18.39</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2805.21</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>980.42</v>
       </c>
-      <c r="V4">
-        <v>0</v>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
@@ -794,32 +824,38 @@
       <c r="N5" s="2">
         <v>22.428951011451868</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
+        <v>422</v>
+      </c>
+      <c r="P5">
         <v>58</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>17</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>252</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>14.82</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2891.67</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>728.7</v>
       </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2014</v>
       </c>
@@ -862,32 +898,38 @@
       <c r="N6" s="2">
         <v>23.600000000000005</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
+        <v>425</v>
+      </c>
+      <c r="P6">
         <v>68</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>27</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>401</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>14.85</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3272.44</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1312.25</v>
       </c>
-      <c r="V6">
-        <v>0</v>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2015</v>
       </c>
@@ -930,32 +972,38 @@
       <c r="N7" s="2">
         <v>23.2</v>
       </c>
-      <c r="O7">
-        <v>29</v>
+      <c r="O7" s="2">
+        <v>425</v>
       </c>
       <c r="P7">
         <v>29</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>382.76</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>13.2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3463.66</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1325.75</v>
       </c>
-      <c r="V7">
-        <v>0</v>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2016</v>
       </c>
@@ -998,32 +1046,38 @@
       <c r="N8" s="2">
         <v>23.075000000000003</v>
       </c>
-      <c r="O8">
-        <v>29</v>
+      <c r="O8" s="2">
+        <v>425</v>
       </c>
       <c r="P8">
         <v>29</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>417.4</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>14.39</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3857.78</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1610.24</v>
       </c>
-      <c r="V8">
-        <v>0</v>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2017</v>
       </c>
@@ -1066,32 +1120,38 @@
       <c r="N9" s="2">
         <v>23.433333333333334</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
+        <v>425</v>
+      </c>
+      <c r="P9">
         <v>55</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>29</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>406.96</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>14.03</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3966.78</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1614.32</v>
       </c>
-      <c r="V9">
-        <v>0</v>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2018</v>
       </c>
@@ -1134,32 +1194,38 @@
       <c r="N10" s="2">
         <v>22.941666666666674</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
+        <v>427</v>
+      </c>
+      <c r="P10" s="3">
         <v>95.28</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>558.6</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15.52</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3761.6</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2101.23</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2019</v>
       </c>
@@ -1202,32 +1268,38 @@
       <c r="N11" s="2">
         <v>22.4</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
+        <v>430</v>
+      </c>
+      <c r="P11" s="3">
         <v>78.28</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>26</v>
       </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
       <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
         <v>392.96</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>15.11</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>3490.11</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>1371.47</v>
       </c>
-      <c r="V11" s="3">
-        <v>0</v>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2020</v>
       </c>
@@ -1270,29 +1342,35 @@
       <c r="N12" s="2">
         <v>23.4</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
+        <v>429</v>
+      </c>
+      <c r="P12" s="3">
         <v>136.28</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>38</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>619</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16.29</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3793.54</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2348.1999999999998</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
